--- a/data_premier.xlsx
+++ b/data_premier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\scraping-fbref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82ED73B3-22FE-4C19-A22A-84D36E4415B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA408CDC-BEC5-459A-892F-F6CE4DCC19AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A063A0CF-11A4-4A23-B217-9BF221DBB3AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Row Labels</t>
   </si>
@@ -68,67 +68,70 @@
     <t>Average of HY</t>
   </si>
   <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Ipswich Town</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Manchester Utd</t>
+  </si>
+  <si>
+    <t>Newcastle Utd</t>
+  </si>
+  <si>
+    <t>Nott'ham Forest</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Average of Prate</t>
+  </si>
+  <si>
     <t>Average of HR</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Ipswich Town</t>
-  </si>
-  <si>
-    <t>Leicester City</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
-    <t>Manchester Utd</t>
-  </si>
-  <si>
-    <t>Newcastle Utd</t>
-  </si>
-  <si>
-    <t>Nott'ham Forest</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Wolves</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -531,15 +534,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18AFDC8-8A07-4083-8B55-537CE03D2676}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,12 +574,15 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B2" s="3">
         <v>1.5789473684210522</v>
@@ -608,10 +614,13 @@
       <c r="K2" s="3">
         <v>0.15789473684210525</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R2" s="3">
+        <v>83.394259813476538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3">
         <v>1.4736842105263157</v>
@@ -643,10 +652,13 @@
       <c r="K3" s="3">
         <v>0.10526315789473684</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R3" s="3">
+        <v>81.684417313068394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>1.6789473684210532</v>
@@ -678,10 +690,13 @@
       <c r="K4" s="3">
         <v>7.8947368421052627E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R4" s="3">
+        <v>76.275310576047232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3">
         <v>1.5526315789473681</v>
@@ -713,10 +728,13 @@
       <c r="K5" s="3">
         <v>2.6315789473684209E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R5" s="3">
+        <v>77.688921112012608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3">
         <v>1.5394736842105261</v>
@@ -748,10 +766,13 @@
       <c r="K6" s="3">
         <v>7.8947368421052627E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R6" s="3">
+        <v>82.088259171754004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3">
         <v>1.7842105263157895</v>
@@ -783,10 +804,13 @@
       <c r="K7" s="3">
         <v>5.2631578947368418E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R7" s="3">
+        <v>84.235922666645294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
         <v>1.5894736842105259</v>
@@ -818,10 +842,13 @@
       <c r="K8" s="3">
         <v>0.10526315789473684</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R8" s="3">
+        <v>74.466894054564861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>1.1052631578947369</v>
@@ -853,10 +880,13 @@
       <c r="K9" s="3">
         <v>5.2631578947368418E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R9" s="3">
+        <v>75.339183927165507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>1.2921052631578949</v>
@@ -888,10 +918,13 @@
       <c r="K10" s="3">
         <v>5.2631578947368418E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R10" s="3">
+        <v>81.638946237846852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>0.90263157894736856</v>
@@ -923,10 +956,13 @@
       <c r="K11" s="3">
         <v>0.13157894736842105</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R11" s="3">
+        <v>76.928533524388143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3">
         <v>0.86052631578947381</v>
@@ -958,10 +994,13 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R12" s="3">
+        <v>78.986385076721191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3">
         <v>2.1605263157894736</v>
@@ -993,10 +1032,13 @@
       <c r="K13" s="3">
         <v>7.8947368421052627E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R13" s="3">
+        <v>83.757975109850733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3">
         <v>1.7868421052631576</v>
@@ -1028,10 +1070,13 @@
       <c r="K14" s="3">
         <v>5.2631578947368418E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R14" s="3">
+        <v>87.910077745346669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3">
         <v>1.3815789473684208</v>
@@ -1063,10 +1108,13 @@
       <c r="K15" s="3">
         <v>7.8947368421052627E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R15" s="3">
+        <v>82.026350228409044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3">
         <v>1.6815789473684213</v>
@@ -1098,10 +1146,13 @@
       <c r="K16" s="3">
         <v>2.6315789473684209E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R16" s="3">
+        <v>80.581001669121136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3">
         <v>1.1921052631578946</v>
@@ -1133,10 +1184,13 @@
       <c r="K17" s="3">
         <v>5.2631578947368418E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R17" s="3">
+        <v>74.522722250038171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3">
         <v>0.85526315789473706</v>
@@ -1168,10 +1222,13 @@
       <c r="K18" s="3">
         <v>7.8947368421052627E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R18" s="3">
+        <v>82.988888561117889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3">
         <v>1.544736842105263</v>
@@ -1203,10 +1260,13 @@
       <c r="K19" s="3">
         <v>2.6315789473684209E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R19" s="3">
+        <v>82.178770856842107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3">
         <v>1.2421052631578948</v>
@@ -1238,10 +1298,13 @@
       <c r="K20" s="3">
         <v>7.8947368421052627E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R20" s="3">
+        <v>80.219390723066297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3">
         <v>1.1473684210526316</v>
@@ -1272,6 +1335,9 @@
       </c>
       <c r="K21" s="3">
         <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="R21" s="3">
+        <v>80.30395763671396</v>
       </c>
     </row>
   </sheetData>

--- a/data_premier.xlsx
+++ b/data_premier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\scraping-fbref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F8967E-0DFE-435C-8092-A5DB0C39B2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9AB561-4B72-4991-9403-83EFD8084FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A063A0CF-11A4-4A23-B217-9BF221DBB3AD}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{A063A0CF-11A4-4A23-B217-9BF221DBB3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean" sheetId="1" r:id="rId1"/>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18AFDC8-8A07-4083-8B55-537CE03D2676}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,30 +601,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -642,30 +642,30 @@
         <v>10</v>
       </c>
       <c r="B2" s="3">
+        <v>56.89473684210526</v>
+      </c>
+      <c r="C2" s="3">
+        <v>532.65789473684208</v>
+      </c>
+      <c r="D2" s="3">
+        <v>449.10526315789474</v>
+      </c>
+      <c r="E2" s="3">
+        <v>83.394259813476538</v>
+      </c>
+      <c r="F2" s="3">
+        <v>14.394736842105264</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4.9473684210526319</v>
+      </c>
+      <c r="L2" s="3">
         <v>1.5789473684210522</v>
       </c>
-      <c r="C2" s="3">
-        <v>56.89473684210526</v>
-      </c>
-      <c r="D2" s="3">
-        <v>532.65789473684208</v>
-      </c>
-      <c r="E2" s="3">
-        <v>449.10526315789474</v>
-      </c>
-      <c r="F2" s="3">
-        <v>83.394259813476538</v>
-      </c>
-      <c r="G2" s="3">
-        <v>14.394736842105264</v>
-      </c>
-      <c r="H2" s="3">
-        <v>4.9473684210526319</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="N2" s="3">
         <v>10.526315789473685</v>
       </c>
-      <c r="J2" s="3">
+      <c r="O2" s="3">
         <v>6.6052631578947372</v>
       </c>
       <c r="P2" s="3">
@@ -683,30 +683,30 @@
         <v>11</v>
       </c>
       <c r="B3" s="3">
+        <v>50.526315789473685</v>
+      </c>
+      <c r="C3" s="3">
+        <v>468.34210526315792</v>
+      </c>
+      <c r="D3" s="3">
+        <v>386.86842105263156</v>
+      </c>
+      <c r="E3" s="3">
+        <v>81.684417313068394</v>
+      </c>
+      <c r="F3" s="3">
+        <v>12.736842105263158</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.4736842105263159</v>
+      </c>
+      <c r="L3" s="3">
         <v>1.4736842105263157</v>
       </c>
-      <c r="C3" s="3">
-        <v>50.526315789473685</v>
-      </c>
-      <c r="D3" s="3">
-        <v>468.34210526315792</v>
-      </c>
-      <c r="E3" s="3">
-        <v>386.86842105263156</v>
-      </c>
-      <c r="F3" s="3">
-        <v>81.684417313068394</v>
-      </c>
-      <c r="G3" s="3">
-        <v>12.736842105263158</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4.4736842105263159</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="N3" s="3">
         <v>10.684210526315789</v>
       </c>
-      <c r="J3" s="3">
+      <c r="O3" s="3">
         <v>6.1052631578947372</v>
       </c>
       <c r="P3" s="3">
@@ -724,30 +724,30 @@
         <v>12</v>
       </c>
       <c r="B4" s="3">
+        <v>48.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>444.73684210526318</v>
+      </c>
+      <c r="D4" s="3">
+        <v>341.5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>76.275310576047232</v>
+      </c>
+      <c r="F4" s="3">
+        <v>15.263157894736842</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5.3157894736842106</v>
+      </c>
+      <c r="L4" s="3">
         <v>1.6789473684210532</v>
       </c>
-      <c r="C4" s="3">
-        <v>48.5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>444.73684210526318</v>
-      </c>
-      <c r="E4" s="3">
-        <v>341.5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>76.275310576047232</v>
-      </c>
-      <c r="G4" s="3">
-        <v>15.263157894736842</v>
-      </c>
-      <c r="H4" s="3">
-        <v>5.3157894736842106</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="N4" s="3">
         <v>13.526315789473685</v>
       </c>
-      <c r="J4" s="3">
+      <c r="O4" s="3">
         <v>6.0263157894736841</v>
       </c>
       <c r="P4" s="3">
@@ -765,30 +765,30 @@
         <v>13</v>
       </c>
       <c r="B5" s="3">
+        <v>47.868421052631582</v>
+      </c>
+      <c r="C5" s="3">
+        <v>450</v>
+      </c>
+      <c r="D5" s="3">
+        <v>351.5263157894737</v>
+      </c>
+      <c r="E5" s="3">
+        <v>77.688921112012608</v>
+      </c>
+      <c r="F5" s="3">
+        <v>11.605263157894736</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.8421052631578947</v>
+      </c>
+      <c r="L5" s="3">
         <v>1.5526315789473681</v>
       </c>
-      <c r="C5" s="3">
-        <v>47.868421052631582</v>
-      </c>
-      <c r="D5" s="3">
-        <v>450</v>
-      </c>
-      <c r="E5" s="3">
-        <v>351.5263157894737</v>
-      </c>
-      <c r="F5" s="3">
-        <v>77.688921112012608</v>
-      </c>
-      <c r="G5" s="3">
-        <v>11.605263157894736</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4.8421052631578947</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="N5" s="3">
         <v>8.3947368421052637</v>
       </c>
-      <c r="J5" s="3">
+      <c r="O5" s="3">
         <v>4.6052631578947372</v>
       </c>
       <c r="P5" s="3">
@@ -806,30 +806,30 @@
         <v>14</v>
       </c>
       <c r="B6" s="3">
+        <v>52.342105263157897</v>
+      </c>
+      <c r="C6" s="3">
+        <v>504.94736842105266</v>
+      </c>
+      <c r="D6" s="3">
+        <v>416.31578947368422</v>
+      </c>
+      <c r="E6" s="3">
+        <v>82.088259171754004</v>
+      </c>
+      <c r="F6" s="3">
+        <v>14.026315789473685</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5.0263157894736841</v>
+      </c>
+      <c r="L6" s="3">
         <v>1.5394736842105261</v>
       </c>
-      <c r="C6" s="3">
-        <v>52.342105263157897</v>
-      </c>
-      <c r="D6" s="3">
-        <v>504.94736842105266</v>
-      </c>
-      <c r="E6" s="3">
-        <v>416.31578947368422</v>
-      </c>
-      <c r="F6" s="3">
-        <v>82.088259171754004</v>
-      </c>
-      <c r="G6" s="3">
-        <v>14.026315789473685</v>
-      </c>
-      <c r="H6" s="3">
-        <v>5.0263157894736841</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="N6" s="3">
         <v>11.526315789473685</v>
       </c>
-      <c r="J6" s="3">
+      <c r="O6" s="3">
         <v>4.9736842105263159</v>
       </c>
       <c r="P6" s="3">
@@ -847,30 +847,30 @@
         <v>15</v>
       </c>
       <c r="B7" s="3">
+        <v>57.05263157894737</v>
+      </c>
+      <c r="C7" s="3">
+        <v>561.0526315789474</v>
+      </c>
+      <c r="D7" s="3">
+        <v>474.55263157894734</v>
+      </c>
+      <c r="E7" s="3">
+        <v>84.235922666645294</v>
+      </c>
+      <c r="F7" s="3">
+        <v>15.657894736842104</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5.7368421052631575</v>
+      </c>
+      <c r="L7" s="3">
         <v>1.7842105263157895</v>
       </c>
-      <c r="C7" s="3">
-        <v>57.05263157894737</v>
-      </c>
-      <c r="D7" s="3">
-        <v>561.0526315789474</v>
-      </c>
-      <c r="E7" s="3">
-        <v>474.55263157894734</v>
-      </c>
-      <c r="F7" s="3">
-        <v>84.235922666645294</v>
-      </c>
-      <c r="G7" s="3">
-        <v>15.657894736842104</v>
-      </c>
-      <c r="H7" s="3">
-        <v>5.7368421052631575</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="N7" s="3">
         <v>11.473684210526315</v>
       </c>
-      <c r="J7" s="3">
+      <c r="O7" s="3">
         <v>6.2105263157894735</v>
       </c>
       <c r="P7" s="3">
@@ -888,30 +888,30 @@
         <v>16</v>
       </c>
       <c r="B8" s="3">
+        <v>42.763157894736842</v>
+      </c>
+      <c r="C8" s="3">
+        <v>414.57894736842104</v>
+      </c>
+      <c r="D8" s="3">
+        <v>312.5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>74.466894054564861</v>
+      </c>
+      <c r="F8" s="3">
+        <v>13.578947368421053</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.8947368421052628</v>
+      </c>
+      <c r="L8" s="3">
         <v>1.5894736842105259</v>
       </c>
-      <c r="C8" s="3">
-        <v>42.763157894736842</v>
-      </c>
-      <c r="D8" s="3">
-        <v>414.57894736842104</v>
-      </c>
-      <c r="E8" s="3">
-        <v>312.5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>74.466894054564861</v>
-      </c>
-      <c r="G8" s="3">
-        <v>13.578947368421053</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4.8947368421052628</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="N8" s="3">
         <v>10.973684210526315</v>
       </c>
-      <c r="J8" s="3">
+      <c r="O8" s="3">
         <v>4.5263157894736841</v>
       </c>
       <c r="P8" s="3">
@@ -929,30 +929,30 @@
         <v>17</v>
       </c>
       <c r="B9" s="3">
+        <v>40.89473684210526</v>
+      </c>
+      <c r="C9" s="3">
+        <v>393.5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>300.13157894736844</v>
+      </c>
+      <c r="E9" s="3">
+        <v>75.339183927165507</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10.657894736842104</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.7894736842105261</v>
+      </c>
+      <c r="L9" s="3">
         <v>1.1052631578947369</v>
       </c>
-      <c r="C9" s="3">
-        <v>40.89473684210526</v>
-      </c>
-      <c r="D9" s="3">
-        <v>393.5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300.13157894736844</v>
-      </c>
-      <c r="F9" s="3">
-        <v>75.339183927165507</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10.657894736842104</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3.7894736842105261</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="N9" s="3">
         <v>11.315789473684211</v>
       </c>
-      <c r="J9" s="3">
+      <c r="O9" s="3">
         <v>4.1052631578947372</v>
       </c>
       <c r="P9" s="3">
@@ -970,30 +970,30 @@
         <v>18</v>
       </c>
       <c r="B10" s="3">
+        <v>52.263157894736842</v>
+      </c>
+      <c r="C10" s="3">
+        <v>519.81578947368416</v>
+      </c>
+      <c r="D10" s="3">
+        <v>426.28947368421052</v>
+      </c>
+      <c r="E10" s="3">
+        <v>81.638946237846852</v>
+      </c>
+      <c r="F10" s="3">
+        <v>13.710526315789474</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4.5526315789473681</v>
+      </c>
+      <c r="L10" s="3">
         <v>1.2921052631578949</v>
       </c>
-      <c r="C10" s="3">
-        <v>52.263157894736842</v>
-      </c>
-      <c r="D10" s="3">
-        <v>519.81578947368416</v>
-      </c>
-      <c r="E10" s="3">
-        <v>426.28947368421052</v>
-      </c>
-      <c r="F10" s="3">
-        <v>81.638946237846852</v>
-      </c>
-      <c r="G10" s="3">
-        <v>13.710526315789474</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4.5526315789473681</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="N10" s="3">
         <v>11.368421052631579</v>
       </c>
-      <c r="J10" s="3">
+      <c r="O10" s="3">
         <v>5.3947368421052628</v>
       </c>
       <c r="P10" s="3">
@@ -1011,30 +1011,30 @@
         <v>19</v>
       </c>
       <c r="B11" s="3">
+        <v>40.578947368421055</v>
+      </c>
+      <c r="C11" s="3">
+        <v>388.81578947368422</v>
+      </c>
+      <c r="D11" s="3">
+        <v>303.26315789473682</v>
+      </c>
+      <c r="E11" s="3">
+        <v>76.928533524388143</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9.8947368421052637</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3.3421052631578947</v>
+      </c>
+      <c r="L11" s="3">
         <v>0.90263157894736856</v>
       </c>
-      <c r="C11" s="3">
-        <v>40.578947368421055</v>
-      </c>
-      <c r="D11" s="3">
-        <v>388.81578947368422</v>
-      </c>
-      <c r="E11" s="3">
-        <v>303.26315789473682</v>
-      </c>
-      <c r="F11" s="3">
-        <v>76.928533524388143</v>
-      </c>
-      <c r="G11" s="3">
-        <v>9.8947368421052637</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3.3421052631578947</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="N11" s="3">
         <v>11.315789473684211</v>
       </c>
-      <c r="J11" s="3">
+      <c r="O11" s="3">
         <v>3.8157894736842106</v>
       </c>
       <c r="P11" s="3">
@@ -1052,30 +1052,30 @@
         <v>20</v>
       </c>
       <c r="B12" s="3">
+        <v>45.421052631578945</v>
+      </c>
+      <c r="C12" s="3">
+        <v>460.15789473684208</v>
+      </c>
+      <c r="D12" s="3">
+        <v>366.9736842105263</v>
+      </c>
+      <c r="E12" s="3">
+        <v>78.986385076721191</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8.8157894736842106</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2.9210526315789473</v>
+      </c>
+      <c r="L12" s="3">
         <v>0.86052631578947381</v>
       </c>
-      <c r="C12" s="3">
-        <v>45.421052631578945</v>
-      </c>
-      <c r="D12" s="3">
-        <v>460.15789473684208</v>
-      </c>
-      <c r="E12" s="3">
-        <v>366.9736842105263</v>
-      </c>
-      <c r="F12" s="3">
-        <v>78.986385076721191</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8.8157894736842106</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2.9210526315789473</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="N12" s="3">
         <v>11.052631578947368</v>
       </c>
-      <c r="J12" s="3">
+      <c r="O12" s="3">
         <v>3.7105263157894739</v>
       </c>
       <c r="P12" s="3">
@@ -1093,30 +1093,30 @@
         <v>21</v>
       </c>
       <c r="B13" s="3">
+        <v>57.736842105263158</v>
+      </c>
+      <c r="C13" s="3">
+        <v>572.57894736842104</v>
+      </c>
+      <c r="D13" s="3">
+        <v>481.65789473684208</v>
+      </c>
+      <c r="E13" s="3">
+        <v>83.757975109850733</v>
+      </c>
+      <c r="F13" s="3">
+        <v>17.05263157894737</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6.0789473684210522</v>
+      </c>
+      <c r="L13" s="3">
         <v>2.1605263157894736</v>
       </c>
-      <c r="C13" s="3">
-        <v>57.736842105263158</v>
-      </c>
-      <c r="D13" s="3">
-        <v>572.57894736842104</v>
-      </c>
-      <c r="E13" s="3">
-        <v>481.65789473684208</v>
-      </c>
-      <c r="F13" s="3">
-        <v>83.757975109850733</v>
-      </c>
-      <c r="G13" s="3">
-        <v>17.05263157894737</v>
-      </c>
-      <c r="H13" s="3">
-        <v>6.0789473684210522</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="N13" s="3">
         <v>11.315789473684211</v>
       </c>
-      <c r="J13" s="3">
+      <c r="O13" s="3">
         <v>6.6578947368421053</v>
       </c>
       <c r="P13" s="3">
@@ -1134,30 +1134,30 @@
         <v>22</v>
       </c>
       <c r="B14" s="3">
+        <v>61.342105263157897</v>
+      </c>
+      <c r="C14" s="3">
+        <v>643.23684210526312</v>
+      </c>
+      <c r="D14" s="3">
+        <v>566.60526315789468</v>
+      </c>
+      <c r="E14" s="3">
+        <v>87.910077745346669</v>
+      </c>
+      <c r="F14" s="3">
+        <v>15.973684210526315</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5.7105263157894735</v>
+      </c>
+      <c r="L14" s="3">
         <v>1.7868421052631576</v>
       </c>
-      <c r="C14" s="3">
-        <v>61.342105263157897</v>
-      </c>
-      <c r="D14" s="3">
-        <v>643.23684210526312</v>
-      </c>
-      <c r="E14" s="3">
-        <v>566.60526315789468</v>
-      </c>
-      <c r="F14" s="3">
-        <v>87.910077745346669</v>
-      </c>
-      <c r="G14" s="3">
-        <v>15.973684210526315</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5.7105263157894735</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="N14" s="3">
         <v>7.5526315789473681</v>
       </c>
-      <c r="J14" s="3">
+      <c r="O14" s="3">
         <v>6.6578947368421053</v>
       </c>
       <c r="P14" s="3">
@@ -1175,30 +1175,30 @@
         <v>23</v>
       </c>
       <c r="B15" s="3">
+        <v>53.526315789473685</v>
+      </c>
+      <c r="C15" s="3">
+        <v>537.23684210526312</v>
+      </c>
+      <c r="D15" s="3">
+        <v>443.07894736842104</v>
+      </c>
+      <c r="E15" s="3">
+        <v>82.026350228409044</v>
+      </c>
+      <c r="F15" s="3">
+        <v>13.868421052631579</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4.5789473684210522</v>
+      </c>
+      <c r="L15" s="3">
         <v>1.3815789473684208</v>
       </c>
-      <c r="C15" s="3">
-        <v>53.526315789473685</v>
-      </c>
-      <c r="D15" s="3">
-        <v>537.23684210526312</v>
-      </c>
-      <c r="E15" s="3">
-        <v>443.07894736842104</v>
-      </c>
-      <c r="F15" s="3">
-        <v>82.026350228409044</v>
-      </c>
-      <c r="G15" s="3">
-        <v>13.868421052631579</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4.5789473684210522</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="N15" s="3">
         <v>10.868421052631579</v>
       </c>
-      <c r="J15" s="3">
+      <c r="O15" s="3">
         <v>5.2631578947368425</v>
       </c>
       <c r="P15" s="3">
@@ -1216,30 +1216,30 @@
         <v>24</v>
       </c>
       <c r="B16" s="3">
+        <v>51.315789473684212</v>
+      </c>
+      <c r="C16" s="3">
+        <v>497.31578947368422</v>
+      </c>
+      <c r="D16" s="3">
+        <v>405.68421052631578</v>
+      </c>
+      <c r="E16" s="3">
+        <v>80.581001669121136</v>
+      </c>
+      <c r="F16" s="3">
+        <v>13.789473684210526</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4.5789473684210522</v>
+      </c>
+      <c r="L16" s="3">
         <v>1.6815789473684213</v>
       </c>
-      <c r="C16" s="3">
-        <v>51.315789473684212</v>
-      </c>
-      <c r="D16" s="3">
-        <v>497.31578947368422</v>
-      </c>
-      <c r="E16" s="3">
-        <v>405.68421052631578</v>
-      </c>
-      <c r="F16" s="3">
-        <v>80.581001669121136</v>
-      </c>
-      <c r="G16" s="3">
-        <v>13.789473684210526</v>
-      </c>
-      <c r="H16" s="3">
-        <v>4.5789473684210522</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="N16" s="3">
         <v>10.368421052631579</v>
       </c>
-      <c r="J16" s="3">
+      <c r="O16" s="3">
         <v>5.7368421052631575</v>
       </c>
       <c r="P16" s="3">
@@ -1257,30 +1257,30 @@
         <v>25</v>
       </c>
       <c r="B17" s="3">
+        <v>41.210526315789473</v>
+      </c>
+      <c r="C17" s="3">
+        <v>378.05263157894734</v>
+      </c>
+      <c r="D17" s="3">
+        <v>284.78947368421052</v>
+      </c>
+      <c r="E17" s="3">
+        <v>74.522722250038171</v>
+      </c>
+      <c r="F17" s="3">
+        <v>12.184210526315789</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4.3684210526315788</v>
+      </c>
+      <c r="L17" s="3">
         <v>1.1921052631578946</v>
       </c>
-      <c r="C17" s="3">
-        <v>41.210526315789473</v>
-      </c>
-      <c r="D17" s="3">
-        <v>378.05263157894734</v>
-      </c>
-      <c r="E17" s="3">
-        <v>284.78947368421052</v>
-      </c>
-      <c r="F17" s="3">
-        <v>74.522722250038171</v>
-      </c>
-      <c r="G17" s="3">
-        <v>12.184210526315789</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4.3684210526315788</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
         <v>10.289473684210526</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>4.2105263157894735</v>
       </c>
       <c r="P17" s="3">
@@ -1298,30 +1298,30 @@
         <v>26</v>
       </c>
       <c r="B18" s="3">
+        <v>48.526315789473685</v>
+      </c>
+      <c r="C18" s="3">
+        <v>488.44736842105266</v>
+      </c>
+      <c r="D18" s="3">
+        <v>408.68421052631578</v>
+      </c>
+      <c r="E18" s="3">
+        <v>82.988888561117889</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9.026315789473685</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.9210526315789473</v>
+      </c>
+      <c r="L18" s="3">
         <v>0.85526315789473706</v>
       </c>
-      <c r="C18" s="3">
-        <v>48.526315789473685</v>
-      </c>
-      <c r="D18" s="3">
-        <v>488.44736842105266</v>
-      </c>
-      <c r="E18" s="3">
-        <v>408.68421052631578</v>
-      </c>
-      <c r="F18" s="3">
-        <v>82.988888561117889</v>
-      </c>
-      <c r="G18" s="3">
-        <v>9.026315789473685</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2.9210526315789473</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
         <v>12.078947368421053</v>
       </c>
-      <c r="J18" s="3">
+      <c r="O18" s="3">
         <v>4</v>
       </c>
       <c r="P18" s="3">
@@ -1339,30 +1339,30 @@
         <v>27</v>
       </c>
       <c r="B19" s="3">
+        <v>54.684210526315788</v>
+      </c>
+      <c r="C19" s="3">
+        <v>525.26315789473688</v>
+      </c>
+      <c r="D19" s="3">
+        <v>434.55263157894734</v>
+      </c>
+      <c r="E19" s="3">
+        <v>82.178770856842107</v>
+      </c>
+      <c r="F19" s="3">
+        <v>13.078947368421053</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4.8684210526315788</v>
+      </c>
+      <c r="L19" s="3">
         <v>1.544736842105263</v>
       </c>
-      <c r="C19" s="3">
-        <v>54.684210526315788</v>
-      </c>
-      <c r="D19" s="3">
-        <v>525.26315789473688</v>
-      </c>
-      <c r="E19" s="3">
-        <v>434.55263157894734</v>
-      </c>
-      <c r="F19" s="3">
-        <v>82.178770856842107</v>
-      </c>
-      <c r="G19" s="3">
-        <v>13.078947368421053</v>
-      </c>
-      <c r="H19" s="3">
-        <v>4.8684210526315788</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="N19" s="3">
         <v>11.736842105263158</v>
       </c>
-      <c r="J19" s="3">
+      <c r="O19" s="3">
         <v>6.3947368421052628</v>
       </c>
       <c r="P19" s="3">
@@ -1380,30 +1380,30 @@
         <v>28</v>
       </c>
       <c r="B20" s="3">
+        <v>48.44736842105263</v>
+      </c>
+      <c r="C20" s="3">
+        <v>483.23684210526318</v>
+      </c>
+      <c r="D20" s="3">
+        <v>390</v>
+      </c>
+      <c r="E20" s="3">
+        <v>80.219390723066297</v>
+      </c>
+      <c r="F20" s="3">
+        <v>12.526315789473685</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3.8421052631578947</v>
+      </c>
+      <c r="L20" s="3">
         <v>1.2421052631578948</v>
       </c>
-      <c r="C20" s="3">
-        <v>48.44736842105263</v>
-      </c>
-      <c r="D20" s="3">
-        <v>483.23684210526318</v>
-      </c>
-      <c r="E20" s="3">
-        <v>390</v>
-      </c>
-      <c r="F20" s="3">
-        <v>80.219390723066297</v>
-      </c>
-      <c r="G20" s="3">
-        <v>12.526315789473685</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3.8421052631578947</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>11.657894736842104</v>
       </c>
-      <c r="J20" s="3">
+      <c r="O20" s="3">
         <v>4.0526315789473681</v>
       </c>
       <c r="P20" s="3">
@@ -1421,30 +1421,30 @@
         <v>29</v>
       </c>
       <c r="B21" s="3">
+        <v>48.10526315789474</v>
+      </c>
+      <c r="C21" s="3">
+        <v>470.63157894736844</v>
+      </c>
+      <c r="D21" s="3">
+        <v>380.84210526315792</v>
+      </c>
+      <c r="E21" s="3">
+        <v>80.30395763671396</v>
+      </c>
+      <c r="F21" s="3">
+        <v>11.342105263157896</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4.2105263157894735</v>
+      </c>
+      <c r="L21" s="3">
         <v>1.1473684210526316</v>
       </c>
-      <c r="C21" s="3">
-        <v>48.10526315789474</v>
-      </c>
-      <c r="D21" s="3">
-        <v>470.63157894736844</v>
-      </c>
-      <c r="E21" s="3">
-        <v>380.84210526315792</v>
-      </c>
-      <c r="F21" s="3">
-        <v>80.30395763671396</v>
-      </c>
-      <c r="G21" s="3">
-        <v>11.342105263157896</v>
-      </c>
-      <c r="H21" s="3">
-        <v>4.2105263157894735</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="N21" s="3">
         <v>12.631578947368421</v>
       </c>
-      <c r="J21" s="3">
+      <c r="O21" s="3">
         <v>3.9210526315789473</v>
       </c>
       <c r="P21" s="3">
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3D87C0-3ED9-441C-9C05-AA38BA7C9868}">
   <dimension ref="A1:P761"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data_premier.xlsx
+++ b/data_premier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\scraping-fbref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\Github\scraping-fbref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9AB561-4B72-4991-9403-83EFD8084FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97C20D9-9783-4A3C-BD82-08DBF3C78536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{A063A0CF-11A4-4A23-B217-9BF221DBB3AD}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A063A0CF-11A4-4A23-B217-9BF221DBB3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean" sheetId="1" r:id="rId1"/>
@@ -169,8 +169,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -194,7 +195,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +206,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -244,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -254,6 +261,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18AFDC8-8A07-4083-8B55-537CE03D2676}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,6 +1464,266 @@
       </c>
       <c r="R21" s="3">
         <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <f>B2/SQRT(SUMSQ($B$2:$G$2))</f>
+        <v>8.0797864421904106E-2</v>
+      </c>
+      <c r="C23" s="6">
+        <f>C2/SQRT(SUMSQ($B$2:$G$2))</f>
+        <v>0.7564429110840708</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" ref="D23:G23" si="0">D2/SQRT(SUMSQ($B$2:$G$2))</f>
+        <v>0.637787397883541</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11843060486726378</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0442382904154278E-2</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="0"/>
+        <v>7.0259012540786186E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <f>B3/SQRT(SUMSQ($B$3:$G$3))</f>
+        <v>8.213554955900762E-2</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" ref="C24:G24" si="1">C3/SQRT(SUMSQ($B$3:$G$3))</f>
+        <v>0.76133665390711391</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
+        <v>0.628893080243214</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>0.1327861412728204</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0705003117999835E-2</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="1"/>
+        <v>7.2724184505371329E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <f>B4/SQRT(SUMSQ($B$4:$G$4))</f>
+        <v>8.5358159120354285E-2</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" ref="C25:G25" si="2">C4/SQRT(SUMSQ($B$4:$G$4))</f>
+        <v>0.78271996154855528</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="2"/>
+        <v>0.6010270379299173</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="2"/>
+        <v>0.13424165148669445</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="2"/>
+        <v>2.6862578562021424E-2</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="2"/>
+        <v>9.355587706083324E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <f>B5/SQRT(SUMSQ($B$5:$G$5))</f>
+        <v>8.2758917107124075E-2</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" ref="C26:G26" si="3">C5/SQRT(SUMSQ($B$5:$G$5))</f>
+        <v>0.77799751651007232</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="3"/>
+        <v>0.60774800149365771</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="3"/>
+        <v>0.13431508374553941</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="3"/>
+        <v>2.0064146478417654E-2</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="3"/>
+        <v>8.371435265371539E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <f>B6/SQRT(SUMSQ($B$6:$G$6))</f>
+        <v>7.9089469429606638E-2</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" ref="C27:G27" si="4">C6/SQRT(SUMSQ($B$6:$G$6))</f>
+        <v>0.76298076390914638</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="4"/>
+        <v>0.62905751954568978</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="4"/>
+        <v>0.12403621962954975</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="4"/>
+        <v>2.1193910108587399E-2</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="4"/>
+        <v>7.5948158175238138E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <f>B7/SQRT(SUMSQ($B$7:$G$7))</f>
+        <v>7.6887194861412322E-2</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:G28" si="5">C7/SQRT(SUMSQ($B$7:$G$7))</f>
+        <v>0.75610470223492188</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="5"/>
+        <v>0.63953264987815872</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="5"/>
+        <v>0.113520859970132</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="5"/>
+        <v>2.1101421098957716E-2</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="5"/>
+        <v>7.7312769740719017E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <f>B8/SQRT(SUMSQ($B$8:$G$8))</f>
+        <v>8.1234459543160359E-2</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" ref="C29:G29" si="6">C8/SQRT(SUMSQ($B$8:$G$8))</f>
+        <v>0.78754933885719891</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="6"/>
+        <v>0.59363643512309483</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="6"/>
+        <v>0.14146003686797143</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="6"/>
+        <v>2.5795065307243535E-2</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="6"/>
+        <v>9.2982212154017387E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <f>B9/SQRT(SUMSQ($B$9:$G$9))</f>
+        <v>8.1400085490323376E-2</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" ref="C30:G30" si="7">C9/SQRT(SUMSQ($B$9:$G$9))</f>
+        <v>0.78325320356293793</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="7"/>
+        <v>0.59740538932891785</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="7"/>
+        <v>0.14996100931326503</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="7"/>
+        <v>2.1214307994582349E-2</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="7"/>
+        <v>7.5428650647403903E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <f>B10/SQRT(SUMSQ($B$10:$G$10))</f>
+        <v>7.6929471371274802E-2</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" ref="C31:G31" si="8">C10/SQRT(SUMSQ($B$10:$G$10))</f>
+        <v>0.76514997381510119</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="8"/>
+        <v>0.62748263179419961</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="8"/>
+        <v>0.12016956552902734</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="8"/>
+        <v>2.018139707171912E-2</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="8"/>
+        <v>6.7013084326437763E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <f>B11/SQRT(SUMSQ($B$11:$G$11))</f>
+        <v>8.1025124451776398E-2</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" ref="C32:G32" si="9">C11/SQRT(SUMSQ($B$11:$G$11))</f>
+        <v>0.77635941230544503</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="9"/>
+        <v>0.60553406886009797</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="9"/>
+        <v>0.1536053645284278</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="9"/>
+        <v>1.9757099088111494E-2</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="9"/>
+        <v>6.6732754898674454E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data_premier.xlsx
+++ b/data_premier.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\Github\scraping-fbref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97C20D9-9783-4A3C-BD82-08DBF3C78536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3D9543-B841-4592-BC1C-B20554CDB7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A063A0CF-11A4-4A23-B217-9BF221DBB3AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A063A0CF-11A4-4A23-B217-9BF221DBB3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean" sheetId="1" r:id="rId1"/>
-    <sheet name="Match" sheetId="2" r:id="rId2"/>
+    <sheet name="Zscore" sheetId="3" r:id="rId2"/>
+    <sheet name="Match" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="44">
   <si>
     <t>Row Labels</t>
   </si>
@@ -164,6 +165,12 @@
   <si>
     <t>TF</t>
   </si>
+  <si>
+    <t>Poss</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
 </sst>
 </file>
 
@@ -171,7 +178,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -261,8 +268,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18AFDC8-8A07-4083-8B55-537CE03D2676}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,10 +1739,511 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185BD8C4-5609-43FA-9E91-166520DADD5C}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.1912352485151312</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.70533383667519489</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.77106678142062612</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.86898089957728808</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.65277879406641115</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.46877458557588542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5">
+        <v>9.0933988436271998E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-0.28239622883643728</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-0.1367931932189474</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.37916903914510669</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-0.10111788835675965</v>
+      </c>
+      <c r="G3" s="5">
+        <v>-9.0029556170202682E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-0.25916186704336536</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-0.6449141784125153</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-0.79859048551434852</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-1.1703565069236996</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.0476770562880717</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.90340002915617579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-0.36828265316688807</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-0.56408520414806129</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-0.65233481940962212</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-0.76540505298425465</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-0.61568229064559032</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.34459588741008773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.40465624854140181</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.27976928717284316</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.2927608497500519</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.49485602907310977</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.48524619797237334</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.56190860920023289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1.2185154450460129</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.1414061528319273</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.1422721072034872</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.1100887489077615</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.2271762663888259</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1.4001148218193646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-1.250342340998702</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-1.1080642009478396</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-1.2216186851138451</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-1.6884064797206886</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.28181375985818441</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.40668523649298605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-1.573157999947459</v>
+      </c>
+      <c r="C9" s="5">
+        <v>-1.4317842428769794</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-1.4020390606236122</v>
+      </c>
+      <c r="E9" s="5">
+        <v>-1.4385250285152789</v>
+      </c>
+      <c r="F9" s="5">
+        <v>-1.046480394887402</v>
+      </c>
+      <c r="G9" s="5">
+        <v>-0.89719109424788568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.39101615027596098</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.5081111394699257</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.43824876957601289</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.36614311895374479</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.34164682989176942</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3.1044674541448117E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-1.6277183930092196</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-1.5037220299723435</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-1.3563581570370971</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-0.98323029645257021</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-1.3935122010821941</v>
+      </c>
+      <c r="G11" s="5">
+        <v>-1.4249505614525242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-0.79112569939554189</v>
+      </c>
+      <c r="C12" s="5">
+        <v>-0.40808528381766462</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-0.42700128659210479</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-0.39372565079023558</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-1.8841433753575909</v>
+      </c>
+      <c r="G12" s="5">
+        <v>-1.9216653541157134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1.3367296300131628</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.3184216064710816</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.2459178548367578</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.97317299092029863</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1.8614068087448274</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1.8036955908582057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1.9596274508016087</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.4035505859713817</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2.4850603487634135</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2.1626095127708007</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.37077563446943</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1.3690701472779154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.60925772252300769</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.77565504428526999</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.68315983250203716</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.47712121741066299</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.41344651393207099</v>
+      </c>
+      <c r="G15" s="5">
+        <v>3.4149141995593976E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.22733497109067632</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.16256727448938402</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.13767610143952835</v>
+      </c>
+      <c r="E16" s="5">
+        <v>6.3077896678610787E-2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.37754667191191982</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3.4149141995593976E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5">
+        <v>-1.518597606885697</v>
+      </c>
+      <c r="C17" s="5">
+        <v>-1.6690172823431535</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-1.6258371008836003</v>
+      </c>
+      <c r="E17" s="5">
+        <v>-1.6724135960002136</v>
+      </c>
+      <c r="F17" s="5">
+        <v>-0.35241678249781633</v>
+      </c>
+      <c r="G17" s="5">
+        <v>-0.21420825433600038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5">
+        <v>-0.25461516762155179</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.6370452853778616E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.18143763932913146</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.75285579025516214</v>
+      </c>
+      <c r="F18" s="5">
+        <v>-1.7884104633038547</v>
+      </c>
+      <c r="G18" s="5">
+        <v>-1.9216653541157134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.80931249708279995</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.59176912783363733</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.55878493534211238</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.52078455573756743</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5.4448093730561586E-2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.37564056195153689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="5">
+        <v>-0.26825526588699256</v>
+      </c>
+      <c r="C20" s="5">
+        <v>-5.3650231668031338E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-9.1112289632431606E-2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>-4.0511369699714965E-2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>-0.19685080041049507</v>
+      </c>
+      <c r="G20" s="5">
+        <v>-0.83510174516498681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5">
+        <v>-0.32736235837056693</v>
+      </c>
+      <c r="C21" s="5">
+        <v>-0.2472356250313997</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.22470014213753547</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-1.628581834344563E-2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>-0.73534843071275957</v>
+      </c>
+      <c r="G21" s="5">
+        <v>-0.40047630158469644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3D87C0-3ED9-441C-9C05-AA38BA7C9868}">
   <dimension ref="A1:P761"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>

--- a/data_premier.xlsx
+++ b/data_premier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\Github\scraping-fbref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\scraping-fbref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3D9543-B841-4592-BC1C-B20554CDB7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365C055E-4C9B-4AC2-9975-D76C47117A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A063A0CF-11A4-4A23-B217-9BF221DBB3AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A063A0CF-11A4-4A23-B217-9BF221DBB3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="44">
   <si>
     <t>Row Labels</t>
   </si>
@@ -604,1131 +604,1199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18AFDC8-8A07-4083-8B55-537CE03D2676}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
+        <v>1.5789473684210522</v>
+      </c>
+      <c r="C2" s="5">
         <v>56.89473684210526</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="5">
         <v>532.65789473684208</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="5">
         <v>449.10526315789474</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="5">
         <v>83.394259813476538</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="5">
         <v>14.394736842105264</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="5">
         <v>4.9473684210526319</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>1.5789473684210522</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>10.526315789473685</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>6.6052631578947372</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>83.394259813476538</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>1.6842105263157894</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>0.15789473684210525</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
+        <v>1.4736842105263157</v>
+      </c>
+      <c r="C3" s="5">
         <v>50.526315789473685</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="5">
         <v>468.34210526315792</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="5">
         <v>386.86842105263156</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="5">
         <v>81.684417313068394</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="5">
         <v>12.736842105263158</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="5">
         <v>4.4736842105263159</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>1.4736842105263157</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>10.684210526315789</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>6.1052631578947372</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>81.684417313068394</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>1.8947368421052631</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>0.10526315789473684</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
+        <v>1.6789473684210532</v>
+      </c>
+      <c r="C4" s="5">
         <v>48.5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="5">
         <v>444.73684210526318</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="5">
         <v>341.5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="5">
         <v>76.275310576047232</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="5">
         <v>15.263157894736842</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="5">
         <v>5.3157894736842106</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>1.6789473684210532</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>13.526315789473685</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>6.0263157894736841</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>76.275310576047232</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>2.5526315789473686</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>7.8947368421052627E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
+        <v>1.5526315789473681</v>
+      </c>
+      <c r="C5" s="5">
         <v>47.868421052631582</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="5">
         <v>450</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="5">
         <v>351.5263157894737</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="5">
         <v>77.688921112012608</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="5">
         <v>11.605263157894736</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="5">
         <v>4.8421052631578947</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>1.5526315789473681</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>8.3947368421052637</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>4.6052631578947372</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <v>77.688921112012608</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>1.631578947368421</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>2.6315789473684209E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
+        <v>1.5394736842105261</v>
+      </c>
+      <c r="C6" s="5">
         <v>52.342105263157897</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="5">
         <v>504.94736842105266</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="5">
         <v>416.31578947368422</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="5">
         <v>82.088259171754004</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="5">
         <v>14.026315789473685</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="5">
         <v>5.0263157894736841</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>1.5394736842105261</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>11.526315789473685</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>4.9736842105263159</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>82.088259171754004</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>1.8947368421052631</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>7.8947368421052627E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
+        <v>1.7842105263157895</v>
+      </c>
+      <c r="C7" s="5">
         <v>57.05263157894737</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="5">
         <v>561.0526315789474</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="5">
         <v>474.55263157894734</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="5">
         <v>84.235922666645294</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="5">
         <v>15.657894736842104</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="5">
         <v>5.7368421052631575</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>1.7842105263157895</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>11.473684210526315</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>6.2105263157894735</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <v>84.235922666645294</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>2.5789473684210527</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
+        <v>1.5894736842105259</v>
+      </c>
+      <c r="C8" s="5">
         <v>42.763157894736842</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="5">
         <v>414.57894736842104</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="5">
         <v>312.5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="5">
         <v>74.466894054564861</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="5">
         <v>13.578947368421053</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="5">
         <v>4.8947368421052628</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1.5894736842105259</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10.973684210526315</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4.5263157894736841</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>74.466894054564861</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1.9736842105263157</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>0.10526315789473684</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
+        <v>1.1052631578947369</v>
+      </c>
+      <c r="C9" s="5">
         <v>40.89473684210526</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="5">
         <v>393.5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="5">
         <v>300.13157894736844</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="5">
         <v>75.339183927165507</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="5">
         <v>10.657894736842104</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="5">
         <v>3.7894736842105261</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1.1052631578947369</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11.315789473684211</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4.1052631578947372</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>75.339183927165507</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2.1052631578947367</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
+        <v>1.2921052631578949</v>
+      </c>
+      <c r="C10" s="5">
         <v>52.263157894736842</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="5">
         <v>519.81578947368416</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="5">
         <v>426.28947368421052</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="5">
         <v>81.638946237846852</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="5">
         <v>13.710526315789474</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="5">
         <v>4.5526315789473681</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1.2921052631578949</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11.368421052631579</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5.3947368421052628</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>81.638946237846852</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2.1052631578947367</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
+        <v>0.90263157894736856</v>
+      </c>
+      <c r="C11" s="5">
         <v>40.578947368421055</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="5">
         <v>388.81578947368422</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="5">
         <v>303.26315789473682</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="5">
         <v>76.928533524388143</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="5">
         <v>9.8947368421052637</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="5">
         <v>3.3421052631578947</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>0.90263157894736856</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>11.315789473684211</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>3.8157894736842106</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>76.928533524388143</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>2.2105263157894739</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>0.13157894736842105</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
+        <v>0.86052631578947381</v>
+      </c>
+      <c r="C12" s="5">
         <v>45.421052631578945</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="5">
         <v>460.15789473684208</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="5">
         <v>366.9736842105263</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="5">
         <v>78.986385076721191</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="5">
         <v>8.8157894736842106</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="5">
         <v>2.9210526315789473</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>0.86052631578947381</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11.052631578947368</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3.7105263157894739</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>78.986385076721191</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2.2894736842105261</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
+        <v>2.1605263157894736</v>
+      </c>
+      <c r="C13" s="5">
         <v>57.736842105263158</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="5">
         <v>572.57894736842104</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="5">
         <v>481.65789473684208</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="5">
         <v>83.757975109850733</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="5">
         <v>17.05263157894737</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="5">
         <v>6.0789473684210522</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>2.1605263157894736</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>11.315789473684211</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>6.6578947368421053</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <v>83.757975109850733</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>1.6842105263157894</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>7.8947368421052627E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
+        <v>1.7868421052631576</v>
+      </c>
+      <c r="C14" s="5">
         <v>61.342105263157897</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="5">
         <v>643.23684210526312</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="5">
         <v>566.60526315789468</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="5">
         <v>87.910077745346669</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="5">
         <v>15.973684210526315</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="5">
         <v>5.7105263157894735</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1.7868421052631576</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7.5526315789473681</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6.6578947368421053</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>87.910077745346669</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1.5</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
+        <v>1.3815789473684208</v>
+      </c>
+      <c r="C15" s="5">
         <v>53.526315789473685</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="5">
         <v>537.23684210526312</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="5">
         <v>443.07894736842104</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="5">
         <v>82.026350228409044</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="5">
         <v>13.868421052631579</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="5">
         <v>4.5789473684210522</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1.3815789473684208</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10.868421052631579</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5.2631578947368425</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>82.026350228409044</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2.1842105263157894</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7.8947368421052627E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="5">
+        <v>1.6815789473684213</v>
+      </c>
+      <c r="C16" s="5">
         <v>51.315789473684212</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="5">
         <v>497.31578947368422</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="5">
         <v>405.68421052631578</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="5">
         <v>80.581001669121136</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="5">
         <v>13.789473684210526</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="5">
         <v>4.5789473684210522</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>1.6815789473684213</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16" s="3">
         <v>10.368421052631579</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>5.7368421052631575</v>
       </c>
-      <c r="P16" s="3">
+      <c r="Q16" s="3">
         <v>80.581001669121136</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="3">
         <v>1.7894736842105263</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S16" s="3">
         <v>2.6315789473684209E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
+        <v>1.1921052631578946</v>
+      </c>
+      <c r="C17" s="5">
         <v>41.210526315789473</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="5">
         <v>378.05263157894734</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="5">
         <v>284.78947368421052</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="5">
         <v>74.522722250038171</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="5">
         <v>12.184210526315789</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="5">
         <v>4.3684210526315788</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1.1921052631578946</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10.289473684210526</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4.2105263157894735</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>74.522722250038171</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2.236842105263158</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
+        <v>0.85526315789473706</v>
+      </c>
+      <c r="C18" s="5">
         <v>48.526315789473685</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="5">
         <v>488.44736842105266</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="5">
         <v>408.68421052631578</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="5">
         <v>82.988888561117889</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="5">
         <v>9.026315789473685</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="5">
         <v>2.9210526315789473</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>0.85526315789473706</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12.078947368421053</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>82.988888561117889</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2.3421052631578947</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7.8947368421052627E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
+        <v>1.544736842105263</v>
+      </c>
+      <c r="C19" s="5">
         <v>54.684210526315788</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="5">
         <v>525.26315789473688</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="5">
         <v>434.55263157894734</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="5">
         <v>82.178770856842107</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="5">
         <v>13.078947368421053</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="5">
         <v>4.8684210526315788</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <v>1.544736842105263</v>
       </c>
-      <c r="N19" s="3">
+      <c r="O19" s="3">
         <v>11.736842105263158</v>
       </c>
-      <c r="O19" s="3">
+      <c r="P19" s="3">
         <v>6.3947368421052628</v>
       </c>
-      <c r="P19" s="3">
+      <c r="Q19" s="3">
         <v>82.178770856842107</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="R19" s="3">
         <v>1.8421052631578947</v>
       </c>
-      <c r="R19" s="3">
+      <c r="S19" s="3">
         <v>2.6315789473684209E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5">
+        <v>1.2421052631578948</v>
+      </c>
+      <c r="C20" s="5">
         <v>48.44736842105263</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="5">
         <v>483.23684210526318</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="5">
         <v>390</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="5">
         <v>80.219390723066297</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="5">
         <v>12.526315789473685</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="5">
         <v>3.8421052631578947</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1.2421052631578948</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11.657894736842104</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4.0526315789473681</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>80.219390723066297</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2.0526315789473686</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7.8947368421052627E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
+        <v>1.1473684210526316</v>
+      </c>
+      <c r="C21" s="5">
         <v>48.10526315789474</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="5">
         <v>470.63157894736844</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="5">
         <v>380.84210526315792</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="5">
         <v>80.30395763671396</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="5">
         <v>11.342105263157896</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="5">
         <v>4.2105263157894735</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1.1473684210526316</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12.631578947368421</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3.9210526315789473</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>80.30395763671396</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1.9473684210526316</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
-        <f>B2/SQRT(SUMSQ($B$2:$G$2))</f>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C23" s="6">
+        <f>C2/SQRT(SUMSQ($C$2:$H$2))</f>
         <v>8.0797864421904106E-2</v>
       </c>
-      <c r="C23" s="6">
-        <f>C2/SQRT(SUMSQ($B$2:$G$2))</f>
+      <c r="D23" s="6">
+        <f>D2/SQRT(SUMSQ($C$2:$H$2))</f>
         <v>0.7564429110840708</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" ref="D23:G23" si="0">D2/SQRT(SUMSQ($B$2:$G$2))</f>
+      <c r="E23" s="6">
+        <f t="shared" ref="E23:H23" si="0">E2/SQRT(SUMSQ($C$2:$H$2))</f>
         <v>0.637787397883541</v>
       </c>
-      <c r="E23" s="6">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>0.11843060486726378</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="6">
         <f t="shared" si="0"/>
         <v>2.0442382904154278E-2</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="6">
         <f t="shared" si="0"/>
         <v>7.0259012540786186E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
-        <f>B3/SQRT(SUMSQ($B$3:$G$3))</f>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C24" s="5">
+        <f>C3/SQRT(SUMSQ($C$3:$H$3))</f>
         <v>8.213554955900762E-2</v>
       </c>
-      <c r="C24" s="5">
-        <f t="shared" ref="C24:G24" si="1">C3/SQRT(SUMSQ($B$3:$G$3))</f>
+      <c r="D24" s="5">
+        <f t="shared" ref="D24:H24" si="1">D3/SQRT(SUMSQ($C$3:$H$3))</f>
         <v>0.76133665390711391</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="5">
         <f t="shared" si="1"/>
         <v>0.628893080243214</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <f t="shared" si="1"/>
         <v>0.1327861412728204</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <f t="shared" si="1"/>
         <v>2.0705003117999835E-2</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="5">
         <f t="shared" si="1"/>
         <v>7.2724184505371329E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
-        <f>B4/SQRT(SUMSQ($B$4:$G$4))</f>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C25" s="6">
+        <f>C4/SQRT(SUMSQ($C$4:$H$4))</f>
         <v>8.5358159120354285E-2</v>
       </c>
-      <c r="C25" s="6">
-        <f t="shared" ref="C25:G25" si="2">C4/SQRT(SUMSQ($B$4:$G$4))</f>
+      <c r="D25" s="6">
+        <f t="shared" ref="D25:H25" si="2">D4/SQRT(SUMSQ($C$4:$H$4))</f>
         <v>0.78271996154855528</v>
       </c>
-      <c r="D25" s="6">
+      <c r="E25" s="6">
         <f t="shared" si="2"/>
         <v>0.6010270379299173</v>
       </c>
-      <c r="E25" s="6">
+      <c r="F25" s="6">
         <f t="shared" si="2"/>
         <v>0.13424165148669445</v>
       </c>
-      <c r="F25" s="6">
+      <c r="G25" s="6">
         <f t="shared" si="2"/>
         <v>2.6862578562021424E-2</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="6">
         <f t="shared" si="2"/>
         <v>9.355587706083324E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
-        <f>B5/SQRT(SUMSQ($B$5:$G$5))</f>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C26" s="5">
+        <f>C5/SQRT(SUMSQ($C$5:$H$5))</f>
         <v>8.2758917107124075E-2</v>
       </c>
-      <c r="C26" s="5">
-        <f t="shared" ref="C26:G26" si="3">C5/SQRT(SUMSQ($B$5:$G$5))</f>
+      <c r="D26" s="5">
+        <f t="shared" ref="D26:H26" si="3">D5/SQRT(SUMSQ($C$5:$H$5))</f>
         <v>0.77799751651007232</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E26" s="5">
         <f t="shared" si="3"/>
         <v>0.60774800149365771</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <f t="shared" si="3"/>
         <v>0.13431508374553941</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <f t="shared" si="3"/>
         <v>2.0064146478417654E-2</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <f t="shared" si="3"/>
         <v>8.371435265371539E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
-        <f>B6/SQRT(SUMSQ($B$6:$G$6))</f>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C27" s="6">
+        <f>C6/SQRT(SUMSQ($C$6:$H$6))</f>
         <v>7.9089469429606638E-2</v>
       </c>
-      <c r="C27" s="6">
-        <f t="shared" ref="C27:G27" si="4">C6/SQRT(SUMSQ($B$6:$G$6))</f>
+      <c r="D27" s="6">
+        <f t="shared" ref="D27:H27" si="4">D6/SQRT(SUMSQ($C$6:$H$6))</f>
         <v>0.76298076390914638</v>
       </c>
-      <c r="D27" s="6">
+      <c r="E27" s="6">
         <f t="shared" si="4"/>
         <v>0.62905751954568978</v>
       </c>
-      <c r="E27" s="6">
+      <c r="F27" s="6">
         <f t="shared" si="4"/>
         <v>0.12403621962954975</v>
       </c>
-      <c r="F27" s="6">
+      <c r="G27" s="6">
         <f t="shared" si="4"/>
         <v>2.1193910108587399E-2</v>
       </c>
-      <c r="G27" s="6">
+      <c r="H27" s="6">
         <f t="shared" si="4"/>
         <v>7.5948158175238138E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="5">
-        <f>B7/SQRT(SUMSQ($B$7:$G$7))</f>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C28" s="5">
+        <f>C7/SQRT(SUMSQ($C$7:$H$7))</f>
         <v>7.6887194861412322E-2</v>
       </c>
-      <c r="C28" s="5">
-        <f t="shared" ref="C28:G28" si="5">C7/SQRT(SUMSQ($B$7:$G$7))</f>
+      <c r="D28" s="5">
+        <f t="shared" ref="D28:H28" si="5">D7/SQRT(SUMSQ($C$7:$H$7))</f>
         <v>0.75610470223492188</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E28" s="5">
         <f t="shared" si="5"/>
         <v>0.63953264987815872</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5">
         <f t="shared" si="5"/>
         <v>0.113520859970132</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <f t="shared" si="5"/>
         <v>2.1101421098957716E-2</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <f t="shared" si="5"/>
         <v>7.7312769740719017E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="5">
-        <f>B8/SQRT(SUMSQ($B$8:$G$8))</f>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C29" s="5">
+        <f>C8/SQRT(SUMSQ($C$8:$H$8))</f>
         <v>8.1234459543160359E-2</v>
       </c>
-      <c r="C29" s="5">
-        <f t="shared" ref="C29:G29" si="6">C8/SQRT(SUMSQ($B$8:$G$8))</f>
+      <c r="D29" s="5">
+        <f t="shared" ref="D29:H29" si="6">D8/SQRT(SUMSQ($C$8:$H$8))</f>
         <v>0.78754933885719891</v>
       </c>
-      <c r="D29" s="5">
+      <c r="E29" s="5">
         <f t="shared" si="6"/>
         <v>0.59363643512309483</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
         <f t="shared" si="6"/>
         <v>0.14146003686797143</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="5">
         <f t="shared" si="6"/>
         <v>2.5795065307243535E-2</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <f t="shared" si="6"/>
         <v>9.2982212154017387E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="5">
-        <f>B9/SQRT(SUMSQ($B$9:$G$9))</f>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C30" s="5">
+        <f>C9/SQRT(SUMSQ($C$9:$H$9))</f>
         <v>8.1400085490323376E-2</v>
       </c>
-      <c r="C30" s="5">
-        <f t="shared" ref="C30:G30" si="7">C9/SQRT(SUMSQ($B$9:$G$9))</f>
+      <c r="D30" s="5">
+        <f t="shared" ref="D30:H30" si="7">D9/SQRT(SUMSQ($C$9:$H$9))</f>
         <v>0.78325320356293793</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="5">
         <f t="shared" si="7"/>
         <v>0.59740538932891785</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <f t="shared" si="7"/>
         <v>0.14996100931326503</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <f t="shared" si="7"/>
         <v>2.1214307994582349E-2</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <f t="shared" si="7"/>
         <v>7.5428650647403903E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="5">
-        <f>B10/SQRT(SUMSQ($B$10:$G$10))</f>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C31" s="5">
+        <f>C10/SQRT(SUMSQ($C$10:$H$10))</f>
         <v>7.6929471371274802E-2</v>
       </c>
-      <c r="C31" s="5">
-        <f t="shared" ref="C31:G31" si="8">C10/SQRT(SUMSQ($B$10:$G$10))</f>
+      <c r="D31" s="5">
+        <f t="shared" ref="D31:H31" si="8">D10/SQRT(SUMSQ($C$10:$H$10))</f>
         <v>0.76514997381510119</v>
       </c>
-      <c r="D31" s="5">
+      <c r="E31" s="5">
         <f t="shared" si="8"/>
         <v>0.62748263179419961</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <f t="shared" si="8"/>
         <v>0.12016956552902734</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <f t="shared" si="8"/>
         <v>2.018139707171912E-2</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="5">
         <f t="shared" si="8"/>
         <v>6.7013084326437763E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
-        <f>B11/SQRT(SUMSQ($B$11:$G$11))</f>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C32" s="5">
+        <f>C11/SQRT(SUMSQ($C$11:$H$11))</f>
         <v>8.1025124451776398E-2</v>
       </c>
-      <c r="C32" s="5">
-        <f t="shared" ref="C32:G32" si="9">C11/SQRT(SUMSQ($B$11:$G$11))</f>
+      <c r="D32" s="5">
+        <f t="shared" ref="D32:H32" si="9">D11/SQRT(SUMSQ($C$11:$H$11))</f>
         <v>0.77635941230544503</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E32" s="5">
         <f t="shared" si="9"/>
         <v>0.60553406886009797</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <f t="shared" si="9"/>
         <v>0.1536053645284278</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <f t="shared" si="9"/>
         <v>1.9757099088111494E-2</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H32" s="5">
         <f t="shared" si="9"/>
         <v>6.6732754898674454E-3</v>
       </c>
@@ -1740,497 +1808,561 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185BD8C4-5609-43FA-9E91-166520DADD5C}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5">
+        <v>0.4835338535900579</v>
+      </c>
+      <c r="C2" s="5">
         <v>1.1912352485151312</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>0.70533383667519489</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>0.77106678142062612</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>0.86898089957728808</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>0.65277879406641115</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>0.46877458557588542</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="5">
+        <v>0.16827135736182153</v>
+      </c>
+      <c r="C3" s="5">
         <v>9.0933988436271998E-2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>-0.28239622883643728</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>-0.1367931932189474</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>0.37916903914510669</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>-0.10111788835675965</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>-9.0029556170202682E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
+        <v>0.78303322500688632</v>
+      </c>
+      <c r="C4" s="5">
         <v>-0.25916186704336536</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>-0.6449141784125153</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>-0.79859048551434852</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>-1.1703565069236996</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>1.0476770562880717</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>0.90340002915617579</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="5">
+        <v>0.40471822953299896</v>
+      </c>
+      <c r="C5" s="5">
         <v>-0.36828265316688807</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>-0.56408520414806129</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>-0.65233481940962212</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>-0.76540505298425465</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>-0.61568229064559032</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>0.34459588741008773</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="5">
+        <v>0.36531041750446952</v>
+      </c>
+      <c r="C6" s="5">
         <v>0.40465624854140181</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>0.27976928717284316</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>0.2927608497500519</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>0.49485602907310977</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>0.48524619797237334</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>0.56190860920023289</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="5">
+        <v>1.0982957212351221</v>
+      </c>
+      <c r="C7" s="5">
         <v>1.2185154450460129</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>1.1414061528319273</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>1.1422721072034872</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>1.1100887489077615</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>1.2271762663888259</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>1.4001148218193646</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="5">
+        <v>0.51506010321288176</v>
+      </c>
+      <c r="C8" s="5">
         <v>-1.250342340998702</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>-1.1080642009478396</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>-1.2216186851138451</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>-1.6884064797206886</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>0.28181375985818441</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>0.40668523649298605</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="5">
+        <v>-0.93514737943700876</v>
+      </c>
+      <c r="C9" s="5">
         <v>-1.573157999947459</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>-1.4317842428769794</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>-1.4020390606236122</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>-1.4385250285152789</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>-1.046480394887402</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>-0.89719109424788568</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="5">
+        <v>-0.37555644863188736</v>
+      </c>
+      <c r="C10" s="5">
         <v>0.39101615027596098</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>0.5081111394699257</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>0.43824876957601289</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>0.36614311895374479</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>0.34164682989176942</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>3.1044674541448117E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="5">
+        <v>-1.5420276846763656</v>
+      </c>
+      <c r="C11" s="5">
         <v>-1.6277183930092196</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="5">
         <v>-1.5037220299723435</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>-1.3563581570370971</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>-0.98323029645257021</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>-1.3935122010821941</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>-1.4249505614525242</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="5">
+        <v>-1.6681326831676606</v>
+      </c>
+      <c r="C12" s="5">
         <v>-0.79112569939554189</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>-0.40808528381766462</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>-0.42700128659210479</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>-0.39372565079023558</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>-1.8841433753575909</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>-1.9216653541157134</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="5">
+        <v>2.2253591452510704</v>
+      </c>
+      <c r="C13" s="5">
         <v>1.3367296300131628</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>1.3184216064710816</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>1.2459178548367578</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>0.97317299092029863</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>1.8614068087448274</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>1.8036955908582057</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="5">
+        <v>1.106177283640827</v>
+      </c>
+      <c r="C14" s="5">
         <v>1.9596274508016087</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>2.4035505859713817</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>2.4850603487634135</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>2.1626095127708007</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>1.37077563446943</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>1.3690701472779154</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="5">
+        <v>-0.10758332683788673</v>
+      </c>
+      <c r="C15" s="5">
         <v>0.60925772252300769</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="5">
         <v>0.77565504428526999</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>0.68315983250203716</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>0.47712121741066299</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>0.41344651393207099</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>3.4149141995593976E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="5">
+        <v>0.79091478741259125</v>
+      </c>
+      <c r="C16" s="5">
         <v>0.22733497109067632</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D16" s="5">
         <v>0.16256727448938402</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>0.13767610143952835</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>6.3077896678610787E-2</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>0.37754667191191982</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>3.4149141995593976E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="5">
+        <v>-0.67505582004871378</v>
+      </c>
+      <c r="C17" s="5">
         <v>-1.518597606885697</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D17" s="5">
         <v>-1.6690172823431535</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>-1.6258371008836003</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>-1.6724135960002136</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>-0.35241678249781633</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>-0.21420825433600038</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="5">
+        <v>-1.6838958079790722</v>
+      </c>
+      <c r="C18" s="5">
         <v>-0.25461516762155179</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D18" s="5">
         <v>2.6370452853778616E-2</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>0.18143763932913146</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>0.75285579025516214</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>-1.7884104633038547</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>-1.9216653541157134</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="5">
+        <v>0.38107354231588142</v>
+      </c>
+      <c r="C19" s="5">
         <v>0.80931249708279995</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D19" s="5">
         <v>0.59176912783363733</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>0.55878493534211238</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>0.52078455573756743</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>5.4448093730561586E-2</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <v>0.37564056195153689</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="5">
+        <v>-0.52530613434030027</v>
+      </c>
+      <c r="C20" s="5">
         <v>-0.26825526588699256</v>
       </c>
-      <c r="C20" s="5">
+      <c r="D20" s="5">
         <v>-5.3650231668031338E-2</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="5">
         <v>-9.1112289632431606E-2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>-4.0511369699714965E-2</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>-0.19685080041049507</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <v>-0.83510174516498681</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="5">
+        <v>-0.80904238094571412</v>
+      </c>
+      <c r="C21" s="5">
         <v>-0.32736235837056693</v>
       </c>
-      <c r="C21" s="5">
+      <c r="D21" s="5">
         <v>-0.2472356250313997</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="5">
         <v>-0.22470014213753547</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <v>-1.628581834344563E-2</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>-0.73534843071275957</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <v>-0.40047630158469644</v>
       </c>
     </row>
@@ -2243,7 +2375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3D87C0-3ED9-441C-9C05-AA38BA7C9868}">
   <dimension ref="A1:P761"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
